--- a/get-category/NewExcel.xlsx
+++ b/get-category/NewExcel.xlsx
@@ -505,6 +505,13 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Audio, Kamera &amp; Elektronik Lainnya</t>
+        </is>
+      </c>
+    </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
